--- a/Tools/ConfigDataExpoter/Design/Language/EN/Test_EN.xlsx
+++ b/Tools/ConfigDataExpoter/Design/Language/EN/Test_EN.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t xml:space="preserve">MutiLanguage</t>
   </si>
@@ -35,106 +35,52 @@
     <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t xml:space="preserve">jksjda</t>
+    <t xml:space="preserve">Jack</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">ConfigPP-0-nesttt-0-name-0</t>
+    <t xml:space="preserve">ConfigPP-0-comment-0--0</t>
   </si>
   <si>
     <t xml:space="preserve">6</t>
   </si>
   <si>
-    <t xml:space="preserve">hola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfigPP-0-nesttt-1-name-0</t>
+    <t xml:space="preserve">Loli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConfigPP-0-comment-1--0</t>
   </si>
   <si>
     <t xml:space="preserve">7</t>
   </si>
   <si>
-    <t xml:space="preserve">Jack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfigPP-0-comment-0--0</t>
+    <t xml:space="preserve">Mack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConfigPP-1-comment-0--0</t>
   </si>
   <si>
     <t xml:space="preserve">8</t>
   </si>
   <si>
-    <t xml:space="preserve">Loli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfigPP-0-comment-1--0</t>
+    <t xml:space="preserve">Khan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConfigPP-1-comment-1--0</t>
   </si>
   <si>
     <t xml:space="preserve">9</t>
   </si>
   <si>
-    <t xml:space="preserve">ConfigPP-1-nesttt-0-name-0</t>
+    <t xml:space="preserve">Ruby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConfigPP-2-comment-0--0</t>
   </si>
   <si>
     <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfigPP-1-nesttt-1-name-0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfigPP-1-comment-0--0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfigPP-1-comment-1--0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfigPP-2-nesttt-0-name-0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfigPP-2-nesttt-1-name-0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfigPP-2-comment-0--0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfigPP-3-nesttt-0-name-0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfigPP-3-nesttt-1-name-0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
   </si>
   <si>
     <t xml:space="preserve">Hola</t>
@@ -276,139 +222,27 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
